--- a/docs/FMC_eval_board_template.xlsx
+++ b/docs/FMC_eval_board_template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\adi\hdl\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\ad\hdl\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D86B77E-4BFE-407E-9690-D17BDBED4EE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81191E10-5BDC-4B12-85E7-59EE6DAE8603}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13992" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="5" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1249" uniqueCount="661">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1251" uniqueCount="663">
   <si>
     <t>H4</t>
   </si>
@@ -2232,6 +2232,12 @@
       <t>)
                          - two parameters indicating both fmc ports in the desired order for projects that use both fmc connectors</t>
     </r>
+  </si>
+  <si>
+    <t>Copyright 2022 - 2023 © Analog Devices, Inc. All rights reserved.</t>
+  </si>
+  <si>
+    <t>The current document serves as a template to be used when creating the constraints file for a specific evaluation board on whichever carrier we support.</t>
   </si>
 </sst>
 </file>
@@ -2807,59 +2813,73 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F82280CF-0FAD-40EE-ABE5-57D95708CD39}">
-  <dimension ref="B2:B10"/>
+  <dimension ref="B1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="142" customWidth="1"/>
+    <col min="2" max="2" width="163.7109375" customWidth="1"/>
+    <col min="3" max="3" width="142" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" ht="18.3" x14ac:dyDescent="0.7">
-      <c r="B2" s="5" t="s">
+    <row r="1" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B1" s="5" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B2" s="5"/>
+    </row>
+    <row r="3" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B3" s="5" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B5" s="5" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="3" spans="2:2" ht="18.3" x14ac:dyDescent="0.7">
-      <c r="B3" s="5" t="s">
+    <row r="6" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B6" s="5" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="4" spans="2:2" ht="18.3" x14ac:dyDescent="0.7">
-      <c r="B4" s="5" t="s">
+    <row r="7" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B7" s="5" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="5" spans="2:2" ht="18.3" x14ac:dyDescent="0.7">
-      <c r="B5" s="5" t="s">
+    <row r="8" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B8" s="5" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="6" spans="2:2" ht="18.3" x14ac:dyDescent="0.7">
-      <c r="B6" s="5" t="s">
+    <row r="9" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B9" s="5" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="7" spans="2:2" ht="18.3" x14ac:dyDescent="0.7">
-      <c r="B7" s="5" t="s">
+    <row r="10" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B10" s="5" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="8" spans="2:2" ht="18.3" x14ac:dyDescent="0.7">
-      <c r="B8" s="5" t="s">
+    <row r="11" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B11" s="5" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="9" spans="2:2" ht="36.6" x14ac:dyDescent="0.7">
-      <c r="B9" s="6" t="s">
+    <row r="12" spans="2:2" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="B12" s="6" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="10" spans="2:2" ht="128.1" x14ac:dyDescent="0.7">
-      <c r="B10" s="6" t="s">
+    <row r="13" spans="2:2" ht="150" x14ac:dyDescent="0.3">
+      <c r="B13" s="6" t="s">
         <v>660</v>
       </c>
     </row>
@@ -2877,18 +2897,18 @@
       <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.68359375" customWidth="1"/>
-    <col min="2" max="2" width="16.41796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.15625" customWidth="1"/>
-    <col min="4" max="4" width="17.26171875" customWidth="1"/>
-    <col min="5" max="11" width="12.68359375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" customWidth="1"/>
+    <col min="5" max="11" width="12.7109375" customWidth="1"/>
     <col min="15" max="15" width="16" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.41796875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>642</v>
       </c>
@@ -2908,7 +2928,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>176</v>
       </c>
@@ -2928,7 +2948,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>177</v>
       </c>
@@ -2948,7 +2968,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>178</v>
       </c>
@@ -2968,7 +2988,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>179</v>
       </c>
@@ -2988,7 +3008,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>58</v>
       </c>
@@ -3008,7 +3028,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>61</v>
       </c>
@@ -3028,7 +3048,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>86</v>
       </c>
@@ -3048,7 +3068,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>89</v>
       </c>
@@ -3068,7 +3088,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>115</v>
       </c>
@@ -3088,7 +3108,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>118</v>
       </c>
@@ -3108,7 +3128,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>138</v>
       </c>
@@ -3128,7 +3148,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>140</v>
       </c>
@@ -3148,7 +3168,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>158</v>
       </c>
@@ -3168,7 +3188,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>159</v>
       </c>
@@ -3188,7 +3208,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>172</v>
       </c>
@@ -3208,7 +3228,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>173</v>
       </c>
@@ -3228,7 +3248,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>180</v>
       </c>
@@ -3248,7 +3268,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>174</v>
       </c>
@@ -3268,7 +3288,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>175</v>
       </c>
@@ -3288,7 +3308,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -3308,7 +3328,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -3328,7 +3348,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>51</v>
       </c>
@@ -3348,7 +3368,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>55</v>
       </c>
@@ -3368,7 +3388,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>79</v>
       </c>
@@ -3388,7 +3408,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>83</v>
       </c>
@@ -3408,7 +3428,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>107</v>
       </c>
@@ -3428,7 +3448,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>112</v>
       </c>
@@ -3448,7 +3468,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>133</v>
       </c>
@@ -3468,7 +3488,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>136</v>
       </c>
@@ -3488,7 +3508,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>150</v>
       </c>
@@ -3508,7 +3528,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>151</v>
       </c>
@@ -3528,7 +3548,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>156</v>
       </c>
@@ -3548,7 +3568,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>157</v>
       </c>
@@ -3568,7 +3588,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>9</v>
       </c>
@@ -3588,7 +3608,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>12</v>
       </c>
@@ -3608,7 +3628,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>14</v>
       </c>
@@ -3628,7 +3648,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>17</v>
       </c>
@@ -3648,7 +3668,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -3668,7 +3688,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>41</v>
       </c>
@@ -3688,7 +3708,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>72</v>
       </c>
@@ -3708,7 +3728,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>75</v>
       </c>
@@ -3728,7 +3748,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>100</v>
       </c>
@@ -3748,7 +3768,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>103</v>
       </c>
@@ -3768,7 +3788,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>128</v>
       </c>
@@ -3788,7 +3808,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>131</v>
       </c>
@@ -3808,7 +3828,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>144</v>
       </c>
@@ -3828,7 +3848,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>145</v>
       </c>
@@ -3848,7 +3868,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>148</v>
       </c>
@@ -3868,7 +3888,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>149</v>
       </c>
@@ -3888,7 +3908,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>154</v>
       </c>
@@ -3908,7 +3928,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>155</v>
       </c>
@@ -3928,7 +3948,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>162</v>
       </c>
@@ -3948,7 +3968,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>163</v>
       </c>
@@ -3968,7 +3988,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>166</v>
       </c>
@@ -3988,7 +4008,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>167</v>
       </c>
@@ -4008,7 +4028,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>170</v>
       </c>
@@ -4028,7 +4048,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>171</v>
       </c>
@@ -4048,7 +4068,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>181</v>
       </c>
@@ -4068,7 +4088,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>0</v>
       </c>
@@ -4088,7 +4108,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>4</v>
       </c>
@@ -4108,7 +4128,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>30</v>
       </c>
@@ -4128,7 +4148,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>33</v>
       </c>
@@ -4148,7 +4168,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>44</v>
       </c>
@@ -4168,7 +4188,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>47</v>
       </c>
@@ -4188,7 +4208,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>65</v>
       </c>
@@ -4208,7 +4228,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>69</v>
       </c>
@@ -4228,7 +4248,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>93</v>
       </c>
@@ -4248,7 +4268,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>97</v>
       </c>
@@ -4268,7 +4288,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>123</v>
       </c>
@@ -4288,7 +4308,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>126</v>
       </c>
@@ -4308,7 +4328,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>142</v>
       </c>
@@ -4328,7 +4348,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>143</v>
       </c>
@@ -4348,7 +4368,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>146</v>
       </c>
@@ -4368,7 +4388,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>147</v>
       </c>
@@ -4388,7 +4408,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>152</v>
       </c>
@@ -4408,7 +4428,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>153</v>
       </c>
@@ -4428,7 +4448,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>160</v>
       </c>
@@ -4448,7 +4468,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>161</v>
       </c>
@@ -4468,7 +4488,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>164</v>
       </c>
@@ -4488,7 +4508,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>165</v>
       </c>
@@ -4508,7 +4528,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>168</v>
       </c>
@@ -4528,7 +4548,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>169</v>
       </c>
@@ -4564,17 +4584,17 @@
       <selection activeCell="A196" sqref="A196:XFD199"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.15625" customWidth="1"/>
-    <col min="2" max="2" width="15.15625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.41796875" customWidth="1"/>
-    <col min="4" max="4" width="17.68359375" customWidth="1"/>
-    <col min="5" max="11" width="12.15625" customWidth="1"/>
-    <col min="15" max="15" width="25.83984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" customWidth="1"/>
+    <col min="5" max="11" width="12.140625" customWidth="1"/>
+    <col min="15" max="15" width="25.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>642</v>
       </c>
@@ -4594,7 +4614,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:6" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>435</v>
       </c>
@@ -4614,7 +4634,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>436</v>
       </c>
@@ -4634,7 +4654,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>439</v>
       </c>
@@ -4654,7 +4674,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>440</v>
       </c>
@@ -4674,7 +4694,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>443</v>
       </c>
@@ -4694,7 +4714,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>444</v>
       </c>
@@ -4714,7 +4734,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>447</v>
       </c>
@@ -4734,7 +4754,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>448</v>
       </c>
@@ -4754,7 +4774,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>451</v>
       </c>
@@ -4774,7 +4794,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>452</v>
       </c>
@@ -4794,7 +4814,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>433</v>
       </c>
@@ -4814,7 +4834,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>434</v>
       </c>
@@ -4834,7 +4854,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>437</v>
       </c>
@@ -4854,7 +4874,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>438</v>
       </c>
@@ -4874,7 +4894,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>441</v>
       </c>
@@ -4894,7 +4914,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>442</v>
       </c>
@@ -4914,7 +4934,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>445</v>
       </c>
@@ -4934,7 +4954,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>446</v>
       </c>
@@ -4954,7 +4974,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>449</v>
       </c>
@@ -4974,7 +4994,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>450</v>
       </c>
@@ -4994,7 +5014,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>191</v>
       </c>
@@ -5014,7 +5034,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>467</v>
       </c>
@@ -5034,7 +5054,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>468</v>
       </c>
@@ -5054,7 +5074,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>463</v>
       </c>
@@ -5074,7 +5094,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>464</v>
       </c>
@@ -5094,7 +5114,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>459</v>
       </c>
@@ -5114,7 +5134,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>460</v>
       </c>
@@ -5134,7 +5154,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>455</v>
       </c>
@@ -5154,7 +5174,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>456</v>
       </c>
@@ -5174,7 +5194,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>431</v>
       </c>
@@ -5194,7 +5214,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>432</v>
       </c>
@@ -5214,7 +5234,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>465</v>
       </c>
@@ -5234,7 +5254,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>466</v>
       </c>
@@ -5254,7 +5274,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>461</v>
       </c>
@@ -5274,7 +5294,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>462</v>
       </c>
@@ -5294,7 +5314,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>457</v>
       </c>
@@ -5314,7 +5334,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>458</v>
       </c>
@@ -5334,7 +5354,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>453</v>
       </c>
@@ -5354,7 +5374,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>454</v>
       </c>
@@ -5374,7 +5394,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>176</v>
       </c>
@@ -5394,7 +5414,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>177</v>
       </c>
@@ -5414,7 +5434,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>178</v>
       </c>
@@ -5434,7 +5454,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>179</v>
       </c>
@@ -5454,7 +5474,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>58</v>
       </c>
@@ -5474,7 +5494,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>61</v>
       </c>
@@ -5494,7 +5514,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>86</v>
       </c>
@@ -5514,7 +5534,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>89</v>
       </c>
@@ -5534,7 +5554,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>115</v>
       </c>
@@ -5554,7 +5574,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>118</v>
       </c>
@@ -5574,7 +5594,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>138</v>
       </c>
@@ -5594,7 +5614,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>140</v>
       </c>
@@ -5614,7 +5634,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>158</v>
       </c>
@@ -5634,7 +5654,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>159</v>
       </c>
@@ -5654,7 +5674,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>172</v>
       </c>
@@ -5674,7 +5694,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>173</v>
       </c>
@@ -5694,7 +5714,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>180</v>
       </c>
@@ -5714,7 +5734,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>174</v>
       </c>
@@ -5734,7 +5754,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>175</v>
       </c>
@@ -5754,7 +5774,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>21</v>
       </c>
@@ -5774,7 +5794,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>26</v>
       </c>
@@ -5794,7 +5814,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>51</v>
       </c>
@@ -5814,7 +5834,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>55</v>
       </c>
@@ -5834,7 +5854,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>79</v>
       </c>
@@ -5854,7 +5874,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>83</v>
       </c>
@@ -5874,7 +5894,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>107</v>
       </c>
@@ -5894,7 +5914,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>112</v>
       </c>
@@ -5914,7 +5934,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>133</v>
       </c>
@@ -5934,7 +5954,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>136</v>
       </c>
@@ -5954,7 +5974,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>150</v>
       </c>
@@ -5974,7 +5994,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>151</v>
       </c>
@@ -5994,7 +6014,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>156</v>
       </c>
@@ -6014,7 +6034,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>157</v>
       </c>
@@ -6034,7 +6054,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>331</v>
       </c>
@@ -6054,7 +6074,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>333</v>
       </c>
@@ -6074,7 +6094,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>341</v>
       </c>
@@ -6094,7 +6114,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>342</v>
       </c>
@@ -6114,7 +6134,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>349</v>
       </c>
@@ -6134,7 +6154,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>350</v>
       </c>
@@ -6154,7 +6174,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>357</v>
       </c>
@@ -6174,7 +6194,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>358</v>
       </c>
@@ -6194,7 +6214,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>363</v>
       </c>
@@ -6214,7 +6234,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>364</v>
       </c>
@@ -6234,7 +6254,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>373</v>
       </c>
@@ -6254,7 +6274,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>374</v>
       </c>
@@ -6274,7 +6294,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>389</v>
       </c>
@@ -6294,7 +6314,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>390</v>
       </c>
@@ -6314,7 +6334,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>393</v>
       </c>
@@ -6334,7 +6354,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>394</v>
       </c>
@@ -6354,7 +6374,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>403</v>
       </c>
@@ -6374,7 +6394,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>404</v>
       </c>
@@ -6394,7 +6414,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>411</v>
       </c>
@@ -6414,7 +6434,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>412</v>
       </c>
@@ -6434,7 +6454,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>425</v>
       </c>
@@ -6454,7 +6474,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>426</v>
       </c>
@@ -6474,7 +6494,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>429</v>
       </c>
@@ -6494,7 +6514,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>430</v>
       </c>
@@ -6514,7 +6534,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>469</v>
       </c>
@@ -6534,7 +6554,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>327</v>
       </c>
@@ -6554,7 +6574,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>329</v>
       </c>
@@ -6574,7 +6594,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>339</v>
       </c>
@@ -6594,7 +6614,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>340</v>
       </c>
@@ -6614,7 +6634,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>347</v>
       </c>
@@ -6634,7 +6654,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>348</v>
       </c>
@@ -6654,7 +6674,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>355</v>
       </c>
@@ -6674,7 +6694,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>356</v>
       </c>
@@ -6694,7 +6714,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>361</v>
       </c>
@@ -6714,7 +6734,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>362</v>
       </c>
@@ -6734,7 +6754,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>371</v>
       </c>
@@ -6754,7 +6774,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>372</v>
       </c>
@@ -6774,7 +6794,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>387</v>
       </c>
@@ -6794,7 +6814,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>388</v>
       </c>
@@ -6814,7 +6834,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>391</v>
       </c>
@@ -6834,7 +6854,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>392</v>
       </c>
@@ -6854,7 +6874,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>401</v>
       </c>
@@ -6874,7 +6894,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>402</v>
       </c>
@@ -6894,7 +6914,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>409</v>
       </c>
@@ -6914,7 +6934,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>410</v>
       </c>
@@ -6934,7 +6954,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>417</v>
       </c>
@@ -6954,7 +6974,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>418</v>
       </c>
@@ -6974,7 +6994,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>427</v>
       </c>
@@ -6994,7 +7014,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>428</v>
       </c>
@@ -7014,7 +7034,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>9</v>
       </c>
@@ -7034,7 +7054,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>12</v>
       </c>
@@ -7054,7 +7074,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>14</v>
       </c>
@@ -7074,7 +7094,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>17</v>
       </c>
@@ -7094,7 +7114,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>37</v>
       </c>
@@ -7114,7 +7134,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>41</v>
       </c>
@@ -7134,7 +7154,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>72</v>
       </c>
@@ -7154,7 +7174,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>75</v>
       </c>
@@ -7174,7 +7194,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>100</v>
       </c>
@@ -7194,7 +7214,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>103</v>
       </c>
@@ -7214,7 +7234,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>128</v>
       </c>
@@ -7234,7 +7254,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>131</v>
       </c>
@@ -7254,7 +7274,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>144</v>
       </c>
@@ -7274,7 +7294,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>145</v>
       </c>
@@ -7294,7 +7314,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>148</v>
       </c>
@@ -7314,7 +7334,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>149</v>
       </c>
@@ -7334,7 +7354,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>154</v>
       </c>
@@ -7354,7 +7374,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>155</v>
       </c>
@@ -7374,7 +7394,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>162</v>
       </c>
@@ -7394,7 +7414,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>163</v>
       </c>
@@ -7414,7 +7434,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>166</v>
       </c>
@@ -7434,7 +7454,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>167</v>
       </c>
@@ -7454,7 +7474,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>170</v>
       </c>
@@ -7474,7 +7494,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>171</v>
       </c>
@@ -7494,7 +7514,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>181</v>
       </c>
@@ -7514,7 +7534,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>0</v>
       </c>
@@ -7534,7 +7554,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>4</v>
       </c>
@@ -7554,7 +7574,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>30</v>
       </c>
@@ -7574,7 +7594,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>33</v>
       </c>
@@ -7594,7 +7614,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>44</v>
       </c>
@@ -7614,7 +7634,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>47</v>
       </c>
@@ -7634,7 +7654,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>65</v>
       </c>
@@ -7654,7 +7674,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>69</v>
       </c>
@@ -7674,7 +7694,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>93</v>
       </c>
@@ -7694,7 +7714,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>97</v>
       </c>
@@ -7714,7 +7734,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>123</v>
       </c>
@@ -7734,7 +7754,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>126</v>
       </c>
@@ -7754,7 +7774,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>142</v>
       </c>
@@ -7774,7 +7794,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>143</v>
       </c>
@@ -7794,7 +7814,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>146</v>
       </c>
@@ -7814,7 +7834,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>147</v>
       </c>
@@ -7834,7 +7854,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>152</v>
       </c>
@@ -7854,7 +7874,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>153</v>
       </c>
@@ -7874,7 +7894,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>160</v>
       </c>
@@ -7894,7 +7914,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>161</v>
       </c>
@@ -7914,7 +7934,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>164</v>
       </c>
@@ -7934,7 +7954,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>165</v>
       </c>
@@ -7954,7 +7974,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>168</v>
       </c>
@@ -7974,7 +7994,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>169</v>
       </c>
@@ -7994,7 +8014,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>207</v>
       </c>
@@ -8014,7 +8034,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>212</v>
       </c>
@@ -8034,7 +8054,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>337</v>
       </c>
@@ -8054,7 +8074,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>338</v>
       </c>
@@ -8074,7 +8094,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>345</v>
       </c>
@@ -8094,7 +8114,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>346</v>
       </c>
@@ -8114,7 +8134,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>353</v>
       </c>
@@ -8134,7 +8154,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>354</v>
       </c>
@@ -8154,7 +8174,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>359</v>
       </c>
@@ -8174,7 +8194,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>360</v>
       </c>
@@ -8194,7 +8214,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>369</v>
       </c>
@@ -8214,7 +8234,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>370</v>
       </c>
@@ -8234,7 +8254,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>377</v>
       </c>
@@ -8254,7 +8274,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>378</v>
       </c>
@@ -8274,7 +8294,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>385</v>
       </c>
@@ -8294,7 +8314,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>386</v>
       </c>
@@ -8314,7 +8334,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>399</v>
       </c>
@@ -8334,7 +8354,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>400</v>
       </c>
@@ -8354,7 +8374,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>407</v>
       </c>
@@ -8374,7 +8394,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>408</v>
       </c>
@@ -8394,7 +8414,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>415</v>
       </c>
@@ -8414,7 +8434,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>416</v>
       </c>
@@ -8434,7 +8454,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>423</v>
       </c>
@@ -8454,7 +8474,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>424</v>
       </c>
@@ -8474,7 +8494,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>195</v>
       </c>
@@ -8494,7 +8514,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>200</v>
       </c>
@@ -8514,7 +8534,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>335</v>
       </c>
@@ -8534,7 +8554,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>336</v>
       </c>
@@ -8554,7 +8574,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>343</v>
       </c>
@@ -8574,7 +8594,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>344</v>
       </c>
@@ -8594,7 +8614,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>351</v>
       </c>
@@ -8614,7 +8634,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>352</v>
       </c>
@@ -8634,7 +8654,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>365</v>
       </c>
@@ -8654,7 +8674,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>367</v>
       </c>
@@ -8674,7 +8694,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>375</v>
       </c>
@@ -8694,7 +8714,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>376</v>
       </c>
@@ -8714,7 +8734,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>379</v>
       </c>
@@ -8734,7 +8754,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>380</v>
       </c>
@@ -8754,7 +8774,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>381</v>
       </c>
@@ -8774,7 +8794,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>383</v>
       </c>
@@ -8794,7 +8814,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>395</v>
       </c>
@@ -8814,7 +8834,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>397</v>
       </c>
@@ -8834,7 +8854,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>405</v>
       </c>
@@ -8854,7 +8874,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>406</v>
       </c>
@@ -8874,7 +8894,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>413</v>
       </c>
@@ -8894,7 +8914,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>414</v>
       </c>
@@ -8914,7 +8934,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>419</v>
       </c>
@@ -8934,7 +8954,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>421</v>
       </c>
@@ -8971,16 +8991,16 @@
       <selection activeCell="B304" sqref="B304"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.41796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.83984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.68359375" customWidth="1"/>
-    <col min="5" max="15" width="14.26171875" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" customWidth="1"/>
+    <col min="5" max="15" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>642</v>
       </c>
@@ -9000,7 +9020,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>435</v>
       </c>
@@ -9020,7 +9040,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>436</v>
       </c>
@@ -9040,7 +9060,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>439</v>
       </c>
@@ -9060,7 +9080,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>440</v>
       </c>
@@ -9080,7 +9100,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>443</v>
       </c>
@@ -9100,7 +9120,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>444</v>
       </c>
@@ -9120,7 +9140,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>447</v>
       </c>
@@ -9140,7 +9160,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>448</v>
       </c>
@@ -9160,7 +9180,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>451</v>
       </c>
@@ -9180,7 +9200,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>452</v>
       </c>
@@ -9200,7 +9220,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>433</v>
       </c>
@@ -9220,7 +9240,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>434</v>
       </c>
@@ -9240,7 +9260,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>437</v>
       </c>
@@ -9260,7 +9280,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>438</v>
       </c>
@@ -9280,7 +9300,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>441</v>
       </c>
@@ -9300,7 +9320,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>442</v>
       </c>
@@ -9320,7 +9340,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>445</v>
       </c>
@@ -9340,7 +9360,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>446</v>
       </c>
@@ -9360,7 +9380,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>449</v>
       </c>
@@ -9380,7 +9400,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>450</v>
       </c>
@@ -9400,7 +9420,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>191</v>
       </c>
@@ -9420,7 +9440,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>467</v>
       </c>
@@ -9440,7 +9460,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>468</v>
       </c>
@@ -9460,7 +9480,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>463</v>
       </c>
@@ -9480,7 +9500,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>464</v>
       </c>
@@ -9500,7 +9520,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>459</v>
       </c>
@@ -9520,7 +9540,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>460</v>
       </c>
@@ -9540,7 +9560,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>455</v>
       </c>
@@ -9560,7 +9580,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>456</v>
       </c>
@@ -9580,7 +9600,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>431</v>
       </c>
@@ -9600,7 +9620,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>432</v>
       </c>
@@ -9620,7 +9640,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>465</v>
       </c>
@@ -9640,7 +9660,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>466</v>
       </c>
@@ -9660,7 +9680,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>461</v>
       </c>
@@ -9680,7 +9700,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>462</v>
       </c>
@@ -9700,7 +9720,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>457</v>
       </c>
@@ -9720,7 +9740,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>458</v>
       </c>
@@ -9740,7 +9760,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>453</v>
       </c>
@@ -9760,7 +9780,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>454</v>
       </c>
@@ -9780,7 +9800,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>545</v>
       </c>
@@ -9800,7 +9820,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>176</v>
       </c>
@@ -9820,7 +9840,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>177</v>
       </c>
@@ -9840,7 +9860,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>178</v>
       </c>
@@ -9860,7 +9880,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>179</v>
       </c>
@@ -9880,7 +9900,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>58</v>
       </c>
@@ -9900,7 +9920,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>61</v>
       </c>
@@ -9920,7 +9940,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>86</v>
       </c>
@@ -9940,7 +9960,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>89</v>
       </c>
@@ -9960,7 +9980,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>115</v>
       </c>
@@ -9980,7 +10000,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>118</v>
       </c>
@@ -10000,7 +10020,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>138</v>
       </c>
@@ -10020,7 +10040,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>140</v>
       </c>
@@ -10040,7 +10060,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>158</v>
       </c>
@@ -10060,7 +10080,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>159</v>
       </c>
@@ -10080,7 +10100,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>172</v>
       </c>
@@ -10100,7 +10120,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>173</v>
       </c>
@@ -10120,7 +10140,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>550</v>
       </c>
@@ -10140,7 +10160,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>180</v>
       </c>
@@ -10160,7 +10180,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>174</v>
       </c>
@@ -10180,7 +10200,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>175</v>
       </c>
@@ -10200,7 +10220,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>21</v>
       </c>
@@ -10220,7 +10240,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>26</v>
       </c>
@@ -10240,7 +10260,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>51</v>
       </c>
@@ -10260,7 +10280,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>55</v>
       </c>
@@ -10280,7 +10300,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>79</v>
       </c>
@@ -10300,7 +10320,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>83</v>
       </c>
@@ -10320,7 +10340,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>107</v>
       </c>
@@ -10340,7 +10360,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>112</v>
       </c>
@@ -10360,7 +10380,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>133</v>
       </c>
@@ -10380,7 +10400,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>136</v>
       </c>
@@ -10400,7 +10420,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>150</v>
       </c>
@@ -10420,7 +10440,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>151</v>
       </c>
@@ -10440,7 +10460,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>156</v>
       </c>
@@ -10460,7 +10480,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>157</v>
       </c>
@@ -10480,7 +10500,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>551</v>
       </c>
@@ -10500,7 +10520,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>552</v>
       </c>
@@ -10520,7 +10540,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>553</v>
       </c>
@@ -10540,7 +10560,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>554</v>
       </c>
@@ -10560,7 +10580,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>555</v>
       </c>
@@ -10580,7 +10600,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>556</v>
       </c>
@@ -10600,7 +10620,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>557</v>
       </c>
@@ -10620,7 +10640,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>331</v>
       </c>
@@ -10640,7 +10660,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>333</v>
       </c>
@@ -10660,7 +10680,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>341</v>
       </c>
@@ -10680,7 +10700,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>342</v>
       </c>
@@ -10700,7 +10720,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>349</v>
       </c>
@@ -10720,7 +10740,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>350</v>
       </c>
@@ -10740,7 +10760,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>357</v>
       </c>
@@ -10760,7 +10780,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>358</v>
       </c>
@@ -10780,7 +10800,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>363</v>
       </c>
@@ -10800,7 +10820,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>364</v>
       </c>
@@ -10820,7 +10840,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>373</v>
       </c>
@@ -10840,7 +10860,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>374</v>
       </c>
@@ -10860,7 +10880,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>389</v>
       </c>
@@ -10880,7 +10900,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>390</v>
       </c>
@@ -10900,7 +10920,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>393</v>
       </c>
@@ -10920,7 +10940,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>394</v>
       </c>
@@ -10940,7 +10960,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>403</v>
       </c>
@@ -10960,7 +10980,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>404</v>
       </c>
@@ -10980,7 +11000,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>411</v>
       </c>
@@ -11000,7 +11020,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>412</v>
       </c>
@@ -11020,7 +11040,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>425</v>
       </c>
@@ -11040,7 +11060,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>426</v>
       </c>
@@ -11060,7 +11080,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>429</v>
       </c>
@@ -11080,7 +11100,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>430</v>
       </c>
@@ -11100,7 +11120,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>558</v>
       </c>
@@ -11120,7 +11140,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>469</v>
       </c>
@@ -11140,7 +11160,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>327</v>
       </c>
@@ -11160,7 +11180,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>329</v>
       </c>
@@ -11180,7 +11200,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>339</v>
       </c>
@@ -11200,7 +11220,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>340</v>
       </c>
@@ -11220,7 +11240,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>347</v>
       </c>
@@ -11240,7 +11260,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>348</v>
       </c>
@@ -11260,7 +11280,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>355</v>
       </c>
@@ -11280,7 +11300,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>356</v>
       </c>
@@ -11300,7 +11320,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>361</v>
       </c>
@@ -11320,7 +11340,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>362</v>
       </c>
@@ -11340,7 +11360,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>371</v>
       </c>
@@ -11360,7 +11380,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>372</v>
       </c>
@@ -11380,7 +11400,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>387</v>
       </c>
@@ -11400,7 +11420,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>388</v>
       </c>
@@ -11420,7 +11440,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>391</v>
       </c>
@@ -11440,7 +11460,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>392</v>
       </c>
@@ -11460,7 +11480,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>401</v>
       </c>
@@ -11480,7 +11500,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>402</v>
       </c>
@@ -11500,7 +11520,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>409</v>
       </c>
@@ -11520,7 +11540,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>410</v>
       </c>
@@ -11540,7 +11560,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>417</v>
       </c>
@@ -11560,7 +11580,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>418</v>
       </c>
@@ -11580,7 +11600,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>427</v>
       </c>
@@ -11600,7 +11620,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>428</v>
       </c>
@@ -11620,7 +11640,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>559</v>
       </c>
@@ -11640,7 +11660,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>9</v>
       </c>
@@ -11660,7 +11680,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>12</v>
       </c>
@@ -11680,7 +11700,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>14</v>
       </c>
@@ -11700,7 +11720,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>17</v>
       </c>
@@ -11720,7 +11740,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>37</v>
       </c>
@@ -11740,7 +11760,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>41</v>
       </c>
@@ -11760,7 +11780,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>72</v>
       </c>
@@ -11780,7 +11800,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>75</v>
       </c>
@@ -11800,7 +11820,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>100</v>
       </c>
@@ -11820,7 +11840,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>103</v>
       </c>
@@ -11840,7 +11860,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>128</v>
       </c>
@@ -11860,7 +11880,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>131</v>
       </c>
@@ -11880,7 +11900,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>144</v>
       </c>
@@ -11900,7 +11920,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>145</v>
       </c>
@@ -11920,7 +11940,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>148</v>
       </c>
@@ -11940,7 +11960,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>149</v>
       </c>
@@ -11960,7 +11980,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>154</v>
       </c>
@@ -11980,7 +12000,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>155</v>
       </c>
@@ -12000,7 +12020,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>162</v>
       </c>
@@ -12020,7 +12040,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>163</v>
       </c>
@@ -12040,7 +12060,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>166</v>
       </c>
@@ -12060,7 +12080,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>167</v>
       </c>
@@ -12080,7 +12100,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>170</v>
       </c>
@@ -12100,7 +12120,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>171</v>
       </c>
@@ -12120,7 +12140,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>560</v>
       </c>
@@ -12140,7 +12160,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>561</v>
       </c>
@@ -12160,7 +12180,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>181</v>
       </c>
@@ -12180,7 +12200,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>0</v>
       </c>
@@ -12200,7 +12220,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>4</v>
       </c>
@@ -12220,7 +12240,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>30</v>
       </c>
@@ -12240,7 +12260,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>33</v>
       </c>
@@ -12260,7 +12280,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>44</v>
       </c>
@@ -12280,7 +12300,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>47</v>
       </c>
@@ -12300,7 +12320,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>65</v>
       </c>
@@ -12320,7 +12340,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>69</v>
       </c>
@@ -12340,7 +12360,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>93</v>
       </c>
@@ -12360,7 +12380,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>97</v>
       </c>
@@ -12380,7 +12400,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>123</v>
       </c>
@@ -12400,7 +12420,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>126</v>
       </c>
@@ -12420,7 +12440,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>142</v>
       </c>
@@ -12440,7 +12460,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>143</v>
       </c>
@@ -12460,7 +12480,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>146</v>
       </c>
@@ -12480,7 +12500,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>147</v>
       </c>
@@ -12500,7 +12520,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>152</v>
       </c>
@@ -12520,7 +12540,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>153</v>
       </c>
@@ -12540,7 +12560,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>160</v>
       </c>
@@ -12560,7 +12580,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>161</v>
       </c>
@@ -12580,7 +12600,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>164</v>
       </c>
@@ -12600,7 +12620,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>165</v>
       </c>
@@ -12620,7 +12640,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>168</v>
       </c>
@@ -12640,7 +12660,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>169</v>
       </c>
@@ -12660,7 +12680,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>562</v>
       </c>
@@ -12680,7 +12700,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>207</v>
       </c>
@@ -12700,7 +12720,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>212</v>
       </c>
@@ -12720,7 +12740,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>337</v>
       </c>
@@ -12740,7 +12760,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>338</v>
       </c>
@@ -12760,7 +12780,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>345</v>
       </c>
@@ -12780,7 +12800,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>346</v>
       </c>
@@ -12800,7 +12820,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>353</v>
       </c>
@@ -12820,7 +12840,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>354</v>
       </c>
@@ -12840,7 +12860,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>359</v>
       </c>
@@ -12860,7 +12880,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>360</v>
       </c>
@@ -12880,7 +12900,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>369</v>
       </c>
@@ -12900,7 +12920,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>370</v>
       </c>
@@ -12920,7 +12940,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>377</v>
       </c>
@@ -12940,7 +12960,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>378</v>
       </c>
@@ -12960,7 +12980,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>385</v>
       </c>
@@ -12980,7 +13000,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>386</v>
       </c>
@@ -13000,7 +13020,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>399</v>
       </c>
@@ -13020,7 +13040,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>400</v>
       </c>
@@ -13040,7 +13060,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>407</v>
       </c>
@@ -13060,7 +13080,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>408</v>
       </c>
@@ -13080,7 +13100,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>415</v>
       </c>
@@ -13100,7 +13120,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>416</v>
       </c>
@@ -13120,7 +13140,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>423</v>
       </c>
@@ -13140,7 +13160,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>424</v>
       </c>
@@ -13160,7 +13180,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>563</v>
       </c>
@@ -13180,7 +13200,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>564</v>
       </c>
@@ -13200,7 +13220,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>195</v>
       </c>
@@ -13220,7 +13240,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>200</v>
       </c>
@@ -13240,7 +13260,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>335</v>
       </c>
@@ -13260,7 +13280,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>336</v>
       </c>
@@ -13280,7 +13300,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>343</v>
       </c>
@@ -13300,7 +13320,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>344</v>
       </c>
@@ -13320,7 +13340,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>351</v>
       </c>
@@ -13340,7 +13360,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>352</v>
       </c>
@@ -13360,7 +13380,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>365</v>
       </c>
@@ -13380,7 +13400,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>367</v>
       </c>
@@ -13400,7 +13420,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>375</v>
       </c>
@@ -13420,7 +13440,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>376</v>
       </c>
@@ -13440,7 +13460,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>379</v>
       </c>
@@ -13460,7 +13480,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>380</v>
       </c>
@@ -13480,7 +13500,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>381</v>
       </c>
@@ -13500,7 +13520,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>383</v>
       </c>
@@ -13520,7 +13540,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>395</v>
       </c>
@@ -13540,7 +13560,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>397</v>
       </c>
@@ -13560,7 +13580,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>405</v>
       </c>
@@ -13580,7 +13600,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>406</v>
       </c>
@@ -13600,7 +13620,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>413</v>
       </c>
@@ -13620,7 +13640,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>414</v>
       </c>
@@ -13640,7 +13660,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>419</v>
       </c>
@@ -13660,7 +13680,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>421</v>
       </c>
@@ -13680,7 +13700,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>565</v>
       </c>
@@ -13700,7 +13720,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>566</v>
       </c>
@@ -13720,7 +13740,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>579</v>
       </c>
@@ -13740,7 +13760,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>580</v>
       </c>
@@ -13760,7 +13780,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>581</v>
       </c>
@@ -13780,7 +13800,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>582</v>
       </c>
@@ -13800,7 +13820,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>567</v>
       </c>
@@ -13820,7 +13840,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>568</v>
       </c>
@@ -13840,7 +13860,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>569</v>
       </c>
@@ -13860,7 +13880,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>570</v>
       </c>
@@ -13880,7 +13900,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>571</v>
       </c>
@@ -13900,7 +13920,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>572</v>
       </c>
@@ -13920,7 +13940,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>573</v>
       </c>
@@ -13940,7 +13960,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>574</v>
       </c>
@@ -13960,7 +13980,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>575</v>
       </c>
@@ -13980,7 +14000,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>576</v>
       </c>
@@ -14000,7 +14020,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>577</v>
       </c>
@@ -14020,7 +14040,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>578</v>
       </c>
@@ -14040,7 +14060,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>589</v>
       </c>
@@ -14060,7 +14080,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>594</v>
       </c>
@@ -14080,7 +14100,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>601</v>
       </c>
@@ -14100,7 +14120,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>602</v>
       </c>
@@ -14120,7 +14140,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>583</v>
       </c>
@@ -14140,7 +14160,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>584</v>
       </c>
@@ -14160,7 +14180,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>585</v>
       </c>
@@ -14180,7 +14200,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>586</v>
       </c>
@@ -14200,7 +14220,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>587</v>
       </c>
@@ -14220,7 +14240,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>588</v>
       </c>
@@ -14240,7 +14260,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>590</v>
       </c>
@@ -14260,7 +14280,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>591</v>
       </c>
@@ -14280,7 +14300,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>592</v>
       </c>
@@ -14300,7 +14320,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>593</v>
       </c>
@@ -14320,7 +14340,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>595</v>
       </c>
@@ -14340,7 +14360,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>596</v>
       </c>
@@ -14360,7 +14380,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>597</v>
       </c>
@@ -14380,7 +14400,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>598</v>
       </c>
@@ -14400,7 +14420,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>599</v>
       </c>
@@ -14420,7 +14440,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>600</v>
       </c>
@@ -14440,7 +14460,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>609</v>
       </c>
@@ -14460,7 +14480,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>614</v>
       </c>
@@ -14480,7 +14500,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>621</v>
       </c>
@@ -14500,7 +14520,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>622</v>
       </c>
@@ -14520,7 +14540,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>603</v>
       </c>
@@ -14540,7 +14560,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>604</v>
       </c>
@@ -14560,7 +14580,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>605</v>
       </c>
@@ -14580,7 +14600,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>606</v>
       </c>
@@ -14600,7 +14620,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>607</v>
       </c>
@@ -14620,7 +14640,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>608</v>
       </c>
@@ -14640,7 +14660,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>610</v>
       </c>
@@ -14660,7 +14680,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>611</v>
       </c>
@@ -14680,7 +14700,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>612</v>
       </c>
@@ -14700,7 +14720,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>613</v>
       </c>
@@ -14720,7 +14740,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>615</v>
       </c>
@@ -14740,7 +14760,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>616</v>
       </c>
@@ -14760,7 +14780,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>617</v>
       </c>
@@ -14780,7 +14800,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>618</v>
       </c>
@@ -14800,7 +14820,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>619</v>
       </c>
@@ -14820,7 +14840,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>620</v>
       </c>
@@ -14840,7 +14860,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>623</v>
       </c>
@@ -14860,7 +14880,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>638</v>
       </c>
@@ -14880,7 +14900,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>639</v>
       </c>
@@ -14900,7 +14920,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>640</v>
       </c>
@@ -14920,7 +14940,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>641</v>
       </c>
@@ -14940,7 +14960,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>624</v>
       </c>
@@ -14960,7 +14980,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>625</v>
       </c>
@@ -14980,7 +15000,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>626</v>
       </c>
@@ -15000,7 +15020,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>627</v>
       </c>
@@ -15020,7 +15040,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>628</v>
       </c>
@@ -15040,7 +15060,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>629</v>
       </c>
@@ -15060,7 +15080,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>630</v>
       </c>
@@ -15080,7 +15100,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>631</v>
       </c>
@@ -15100,7 +15120,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>632</v>
       </c>
@@ -15120,7 +15140,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>633</v>
       </c>
@@ -15140,7 +15160,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>634</v>
       </c>
@@ -15160,7 +15180,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>635</v>
       </c>
@@ -15180,7 +15200,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>636</v>
       </c>
@@ -15200,7 +15220,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>637</v>
       </c>
